--- a/legendre_out/DATA/p1/p1SplinePoints.xlsx
+++ b/legendre_out/DATA/p1/p1SplinePoints.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001472572413366965</v>
+        <v>7.709205066056003e-05</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001500005273582866</v>
+        <v>8.056531983837691e-05</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001525822201189928</v>
+        <v>8.374856863925391e-05</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001550209351903915</v>
+        <v>8.66665978031946e-05</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001573352881440592</v>
+        <v>8.934420807020254e-05</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001595438945515722</v>
+        <v>9.180620018028123e-05</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001616653699845071</v>
+        <v>9.407737487343434e-05</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00016371833001444</v>
+        <v>9.618253288966535e-05</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001657213902129476</v>
+        <v>9.814647496897785e-05</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001676931661516062</v>
+        <v>9.999400185137542e-05</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001696522734019912</v>
+        <v>0.0001017499142768608</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001716173275356809</v>
+        <v>0.0001034390129854392</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000173606944124251</v>
+        <v>0.0001050860987171133</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001756397387392776</v>
+        <v>0.0001067159722118868</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001777343269523372</v>
+        <v>0.0001083534342097631</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001799093243350063</v>
+        <v>0.0001100232854507458</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001821833464588613</v>
+        <v>0.0001117503266748386</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001845750088954785</v>
+        <v>0.0001135593586220448</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001871029272164345</v>
+        <v>0.0001154751820323683</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001897857169933054</v>
+        <v>0.0001175225976458123</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001926419937976679</v>
+        <v>0.0001197264062023807</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0001956903732010984</v>
+        <v>0.0001221114084420769</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001989494707751731</v>
+        <v>0.0001247024051049045</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002024379020914685</v>
+        <v>0.0001275241969308669</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0002061742827215611</v>
+        <v>0.0001306015846599679</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002101772282370272</v>
+        <v>0.000133959369032211</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002144653542094432</v>
+        <v>0.0001376223507875998</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002190572762103857</v>
+        <v>0.0001416153306661377</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002239716098114284</v>
+        <v>0.0001459631094078262</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0002292269705841527</v>
+        <v>0.000150690487752673</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002348419741001325</v>
+        <v>0.0001558222664406797</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002408352359309443</v>
+        <v>0.0001613832462118498</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002472253716481645</v>
+        <v>0.0001673982278061869</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0002540309968233695</v>
+        <v>0.0001738920119636947</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0002612707270281357</v>
+        <v>0.0001808893994243765</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0002689631778340396</v>
+        <v>0.0001884151909282361</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0002771269648126576</v>
+        <v>0.0001964941872152769</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>0.000285780703535566</v>
+        <v>0.0002051511890255026</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0002949430095743412</v>
+        <v>0.0002144109970989166</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0003046324985005597</v>
+        <v>0.0002242984121755227</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>0.000314867785885798</v>
+        <v>0.0002348382349953242</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0003256674873016322</v>
+        <v>0.0002460552662983248</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0003370502183196391</v>
+        <v>0.0002579743068245281</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0003490345945113947</v>
+        <v>0.0002706201573139375</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0003616392314484757</v>
+        <v>0.0002840176185065568</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0003748827447024585</v>
+        <v>0.0002981914911423894</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0003887837498449195</v>
+        <v>0.0003131665759614389</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>0.000403361113942013</v>
+        <v>0.000328967874659505</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>0.000418694986538218</v>
+        <v>0.0003456693564665736</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0004350063822648498</v>
+        <v>0.0003634575483312915</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>0.000452536033620828</v>
+        <v>0.0003825347326903731</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0004715246731050727</v>
+        <v>0.0004031031919805334</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0004922130332165038</v>
+        <v>0.0004253652086384868</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0005148418464540418</v>
+        <v>0.0004495230651009485</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>0.000539651845316606</v>
+        <v>0.0004757790438046328</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0005668837623031167</v>
+        <v>0.0005043354271862545</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0005967783299124941</v>
+        <v>0.0005353944976825286</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>0.000629576280643658</v>
+        <v>0.0005691585377301696</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0006655183469955284</v>
+        <v>0.0006058298297658923</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0007048452614670253</v>
+        <v>0.0006456106562264114</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0007477977565570688</v>
+        <v>0.0006887032995484416</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0007946165647645786</v>
+        <v>0.0007353100421686977</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0008455424185884752</v>
+        <v>0.0007856331665238946</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0009008160505276782</v>
+        <v>0.0008398749550507465</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0009606781930811077</v>
+        <v>0.0008982376901859688</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001025369578747651</v>
+        <v>0.0009609236543662442</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>0.001095314741448527</v>
+        <v>0.001028326308522088</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>0.001172907835088056</v>
+        <v>0.0011028877864236</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>0.001261738654906642</v>
+        <v>0.001188293851552251</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>0.001365413806475526</v>
+        <v>0.001288247752421402</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001487539895365951</v>
+        <v>0.001406452737544416</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>0.00163172352714916</v>
+        <v>0.001546612055434654</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001801571307396396</v>
+        <v>0.001712428954605477</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>0.002000689841678899</v>
+        <v>0.001907606683570248</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>0.002232685735567914</v>
+        <v>0.002135848490842329</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>0.002501165594634684</v>
+        <v>0.002400857624935082</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>0.002809736024450448</v>
+        <v>0.002706337334361867</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>0.003162003630586453</v>
+        <v>0.003055990867636048</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>0.003561575018613939</v>
+        <v>0.003453521473270986</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>0.004012056794104149</v>
+        <v>0.003902632399780041</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>0.004516219624631158</v>
+        <v>0.004406181744882835</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>0.005067378787460612</v>
+        <v>0.004957468008994653</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>0.005652871632439781</v>
+        <v>0.005543745882918471</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>0.006259941231621675</v>
+        <v>0.006152174740636019</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>0.00687583065705901</v>
+        <v>0.006769913956128734</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>0.007487782980805398</v>
+        <v>0.007384122903378946</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>0.008083041274913553</v>
+        <v>0.007981960956368087</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>0.008648848611436489</v>
+        <v>0.008550587489077889</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>0.009172448062427216</v>
+        <v>0.009077161875490082</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>0.009641082699938745</v>
+        <v>0.009548843489586395</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01004199559602409</v>
+        <v>0.009952791705348567</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01036242982273626</v>
+        <v>0.01027616589675832</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01058962845212827</v>
+        <v>0.01050612543779738</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01071083455625313</v>
+        <v>0.01062982970244749</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01071447513267173</v>
+        <v>0.01063562764740576</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01060312569312973</v>
+        <v>0.01052608435007151</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01038867621255403</v>
+        <v>0.01031312385876719</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01008318049991915</v>
+        <v>0.01000883483871895</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>0.009698692364199686</v>
+        <v>0.009625305955152938</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>0.009247265614370181</v>
+        <v>0.009174625873295296</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.008740954059405202</v>
+        <v>0.008668883258372175</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>0.008191811508279311</v>
+        <v>0.008120166775609719</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>0.007611891769967353</v>
+        <v>0.007540565090234356</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>0.007013248653443326</v>
+        <v>0.006942166867471674</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>0.006407935967682066</v>
+        <v>0.006337060772548093</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>0.005808007521658133</v>
+        <v>0.005737335470689755</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>0.005225517124346087</v>
+        <v>0.005155079627122811</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>0.004672518584720494</v>
+        <v>0.004602381907073407</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>0.004161065711755911</v>
+        <v>0.004091330975767688</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>0.00370234018062976</v>
+        <v>0.003633128017566191</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>0.003295274056078623</v>
+        <v>0.003226509048167222</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>0.002929762783241728</v>
+        <v>0.002861014444929276</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002595490971436287</v>
+        <v>0.002525970039279438</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002283601876361677</v>
+        <v>0.00221224923999477</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>0.00199365798240687</v>
+        <v>0.001919657989318717</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>0.001728235895151624</v>
+        <v>0.001651200116070927</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>0.001489916047859017</v>
+        <v>0.001409883510121129</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>0.001281255319535931</v>
+        <v>0.00119869024483259</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>0.001102995611613666</v>
+        <v>0.00101861309787975</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0009528065013650444</v>
+        <v>0.0008672774437881567</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0008280604898920187</v>
+        <v>0.000741983048462129</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0007261300782965888</v>
+        <v>0.0006400296778060282</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>0.000644387767680612</v>
+        <v>0.0005587170977240736</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0005802060591460975</v>
+        <v>0.0004953450741206375</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0005309574537950007</v>
+        <v>0.000447213372900037</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0004940144527292764</v>
+        <v>0.0004116217599665895</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0004667495570508791</v>
+        <v>0.000385870001224612</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0004465352678617643</v>
+        <v>0.0003672578625784219</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0004307440862638864</v>
+        <v>0.0003530851099323364</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0004167485133592007</v>
+        <v>0.0003406515091906727</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0004019210502496619</v>
+        <v>0.0003272568262577483</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0003836351593823711</v>
+        <v>0.0003102018557715993</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0003605944500159073</v>
+        <v>0.0002882107800910347</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0003354724514782546</v>
+        <v>0.000264255985931313</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>0.000311680071078744</v>
+        <v>0.000242098926864945</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0002926282161267061</v>
+        <v>0.0002255010564644415</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0002816206536780644</v>
+        <v>0.0002180973916742464</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0002797158406124083</v>
+        <v>0.000220873250202237</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0002858422027951092</v>
+        <v>0.0002323002919054826</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0002988441017508801</v>
+        <v>0.000250750971987008</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>0.000317565899004455</v>
+        <v>0.0002745977456498668</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0003408519560805501</v>
+        <v>0.0003022130680970867</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0003675466345038863</v>
+        <v>0.000331969394531703</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0003964942957991846</v>
+        <v>0.0003622391801567505</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0004265393014911661</v>
+        <v>0.0003913948801752646</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0004565262179695545</v>
+        <v>0.0004178092691072287</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>0.000485748880575808</v>
+        <v>0.0004405553835408172</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0005149030158673976</v>
+        <v>0.0004608913459431957</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0005449570257208809</v>
+        <v>0.0004805002896400614</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0005768793120128164</v>
+        <v>0.0005010653479571125</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>0.000611638276619761</v>
+        <v>0.000524269654220046</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0006502023214182734</v>
+        <v>0.0005517963417545602</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>0.000693539848284911</v>
+        <v>0.0005853285438863523</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0007426192590962317</v>
+        <v>0.0006265493939411201</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0007984089557287934</v>
+        <v>0.0006771420252445612</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0008620708544557705</v>
+        <v>0.000738870474729644</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0009360533552590405</v>
+        <v>0.0008140366265104724</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>0.001023329669164103</v>
+        <v>0.0009051617752840679</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>0.001126874555311631</v>
+        <v>0.00101476786297631</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>0.001249662772842232</v>
+        <v>0.00114537683151301</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>0.001394669080896698</v>
+        <v>0.001299510622820174</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>0.001564868238615646</v>
+        <v>0.001479691178823622</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>0.00176323500513975</v>
+        <v>0.001688440441449235</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>0.001992744139609681</v>
+        <v>0.001928280352622892</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>0.002256370401166114</v>
+        <v>0.002201732854270474</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>0.00255708854894972</v>
+        <v>0.00251131988831786</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>0.002897873342101172</v>
+        <v>0.002859563396690929</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>0.003281699539761143</v>
+        <v>0.003248985321315562</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>0.003711539439677499</v>
+        <v>0.003682105275404312</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>0.004186959680550779</v>
+        <v>0.004158220792546605</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>0.004697362463528576</v>
+        <v>0.004667012874945497</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>0.005230262034254764</v>
+        <v>0.005196376338085592</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>0.005773172638373224</v>
+        <v>0.005734205997451505</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>0.006313608521527836</v>
+        <v>0.006268396668527843</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>0.006839083929362479</v>
+        <v>0.006786843166799221</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>0.00733711310752103</v>
+        <v>0.007277440307750243</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>0.007795210301647162</v>
+        <v>0.007728082906865318</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>0.008200889757385201</v>
+        <v>0.008126665779629495</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>0.008541797331445332</v>
+        <v>0.00846121191625175</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>0.008811308822417842</v>
+        <v>0.008725324641040106</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>0.009010619214454167</v>
+        <v>0.0089202223062953</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>0.009141485651549401</v>
+        <v>0.009047670746266478</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>0.009205665277698658</v>
+        <v>0.009109435795202786</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>0.009204915236897038</v>
+        <v>0.009107283287353368</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>0.009140992673139644</v>
+        <v>0.009042979056967361</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>0.009015654730421582</v>
+        <v>0.008918288938293918</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>0.008830658552737956</v>
+        <v>0.008734978765582177</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>0.008587764039498673</v>
+        <v>0.008494817030371244</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>0.008290482089123728</v>
+        <v>0.008201260867259644</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>0.007947073650459147</v>
+        <v>0.007862348304174604</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>0.00756659739566406</v>
+        <v>0.007486886684119055</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>0.007158111996897594</v>
+        <v>0.007083683350095933</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>0.006730676126318886</v>
+        <v>0.006661545645108177</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>0.006293348456087059</v>
+        <v>0.006229280912158719</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>0.00585518765836125</v>
+        <v>0.005795696494250498</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>0.005425252405300588</v>
+        <v>0.00536959973438645</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>0.005012601369064394</v>
+        <v>0.0049597979755697</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>0.004625158622943762</v>
+        <v>0.004574013271090753</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>0.004264350046362155</v>
+        <v>0.004213751888950283</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>0.003929292126464025</v>
+        <v>0.003878311070017914</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>0.003619098579246351</v>
+        <v>0.003566985404448618</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>0.003332883120706112</v>
+        <v>0.003279069482397365</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>0.003069759466840287</v>
+        <v>0.003013857894019128</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>0.002828841333645854</v>
+        <v>0.002770645229468877</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>0.002609242437119792</v>
+        <v>0.002548726078901583</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>0.002410076493259077</v>
+        <v>0.002347395032472215</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>0.002230455492390997</v>
+        <v>0.002165941913749537</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>0.002069439088516662</v>
+        <v>0.002003511984679954</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>0.001926026429343553</v>
+        <v>0.001859083378780927</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>0.001799213292130531</v>
+        <v>0.001731624919831232</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>0.001687995454136456</v>
+        <v>0.001620105431609642</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>0.00159136869262019</v>
+        <v>0.001523493737894933</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>0.001508328784840594</v>
+        <v>0.001440758662465878</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>0.001437871508056559</v>
+        <v>0.001370869029101284</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>0.001378992639526879</v>
+        <v>0.001312793661579857</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>0.001330687956510451</v>
+        <v>0.001265501383680409</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>0.001291953236266137</v>
+        <v>0.001227961019181714</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>0.001261784256052798</v>
+        <v>0.001199141391862546</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>0.001239176793129294</v>
+        <v>0.001178011325501681</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>0.001223126624754486</v>
+        <v>0.001163539643877892</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>0.001212629528187235</v>
+        <v>0.001154695170769954</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>0.001206681280686403</v>
+        <v>0.001150446729956642</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>0.001204277659510849</v>
+        <v>0.001149763145216729</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>0.001204414441919436</v>
+        <v>0.001151613240328992</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>0.001206087405171023</v>
+        <v>0.001154965839072203</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>0.001208292326524472</v>
+        <v>0.001158789765225137</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>0.001210024983238644</v>
+        <v>0.001162053842566569</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>0.001210281152572399</v>
+        <v>0.001163726894875274</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>0.001208056611784599</v>
+        <v>0.001162777745930025</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>0.001202347138134104</v>
+        <v>0.001158175219509598</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>0.001192148508879775</v>
+        <v>0.001148888139392767</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>0.001176456501280473</v>
+        <v>0.001133885329358306</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>0.00115426689259506</v>
+        <v>0.001112135613184989</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>0.001124575460082411</v>
+        <v>0.001082607814651608</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>0.001086393639861106</v>
+        <v>0.001044286940456632</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>0.001039763821370922</v>
+        <v>0.0009972234538584098</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>0.000986381281209309</v>
+        <v>0.0009431760229667235</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>0.0009280900969605149</v>
+        <v>0.0008840570968475296</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0008667343462087908</v>
+        <v>0.0008217791245667864</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0008041581065383872</v>
+        <v>0.0007582545551904507</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>0.0007422054555335539</v>
+        <v>0.0006953958377844795</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0006827204707785414</v>
+        <v>0.0006351154214148306</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>0.0006275472298576</v>
+        <v>0.0005793257551474607</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0005785298103549801</v>
+        <v>0.0005299392880483276</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0005375122898549315</v>
+        <v>0.0004888684691833878</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0005063387459417048</v>
+        <v>0.0004580257476185993</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0004868532561995503</v>
+        <v>0.0004393235724199189</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0004808998982127181</v>
+        <v>0.000434674392653304</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0004903038333437082</v>
+        <v>0.0004459709603235899</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>0.000515490351485311</v>
+        <v>0.0004736483709191356</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0005545471324103002</v>
+        <v>0.0005157076160136519</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0006053397928074769</v>
+        <v>0.0005699184575941167</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0006657339493655875</v>
+        <v>0.0006340506576474498</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0007335952187733943</v>
+        <v>0.0007058739781605878</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0008067892177196599</v>
+        <v>0.0007831581811204679</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0008831815628931461</v>
+        <v>0.0008636730285140262</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0009606378709826153</v>
+        <v>0.0009451882823281998</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>0.00103702375867683</v>
+        <v>0.001025473704549925</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>0.001110204842664553</v>
+        <v>0.00110229905716614</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>0.001178046739634544</v>
+        <v>0.001173434102163779</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>0.001238415066275569</v>
+        <v>0.00123664860152978</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>0.001289175439276387</v>
+        <v>0.00128971231725108</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>0.001328248135772921</v>
+        <v>0.001330452353811952</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>0.00135495568791636</v>
+        <v>0.001358166875826198</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>0.001370108547675027</v>
+        <v>0.001373714976194625</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>0.001374588979311877</v>
+        <v>0.001378031083760711</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>0.001369279247089864</v>
+        <v>0.001372049627367936</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>0.001355061615271944</v>
+        <v>0.001356705035859776</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>0.001332818348121071</v>
+        <v>0.001332931738079713</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>0.0013034317099002</v>
+        <v>0.001301664162871222</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>0.001267783964872286</v>
+        <v>0.001263836739077784</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>0.001226757377300284</v>
+        <v>0.001220383895542877</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>0.001181234211447148</v>
+        <v>0.001172240061109979</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>0.001132096731575833</v>
+        <v>0.001120339664622568</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>0.001080227201949294</v>
+        <v>0.001065617134924124</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>0.001026507886830486</v>
+        <v>0.001009006900858125</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>0.0009718210504823636</v>
+        <v>0.0009514433912680499</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>0.0009170489571679339</v>
+        <v>0.0008938610349974317</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>0.0008630738711499941</v>
+        <v>0.0008371942608895834</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0008107780566917061</v>
+        <v>0.0007823774977882013</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0007610437780558705</v>
+        <v>0.0007303451745366021</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>0.0007146942794319805</v>
+        <v>0.0006819688793946053</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0006719370015828044</v>
+        <v>0.0006374645347699809</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>0.0006326131134957546</v>
+        <v>0.0005966580816490788</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>0.0005965589333261966</v>
+        <v>0.0005593702961802663</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>0.0005636107792294961</v>
+        <v>0.000525421954511912</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>0.0005336049693610186</v>
+        <v>0.0004946338327923834</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>0.0005063778218761297</v>
+        <v>0.0004668267071700493</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>0.0004817656549301947</v>
+        <v>0.0004418213537932771</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>0.0004596047866785794</v>
+        <v>0.0004194385488104351</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>0.0004397315352766493</v>
+        <v>0.0003994990683698915</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>0.00042198221887977</v>
+        <v>0.0003818236886200143</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>0.0004061931556433071</v>
+        <v>0.0003662331857091715</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>0.000392200663722626</v>
+        <v>0.0003525483357857313</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>0.0003798410612730924</v>
+        <v>0.0003405899149980614</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>0.0003689506664500717</v>
+        <v>0.0003301786994945304</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>0.0003593657974089295</v>
+        <v>0.0003211354654235058</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>0.0003509227723050315</v>
+        <v>0.0003132809889333561</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>0.0003434579092937432</v>
+        <v>0.0003064360461724494</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>0.0003368077077462846</v>
+        <v>0.0003004216116935843</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0003308486096641604</v>
+        <v>0.0002951023912940235</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>0.000325546935081202</v>
+        <v>0.0002904414938600479</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>0.0003208812839005008</v>
+        <v>0.0002864154729099211</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>0.0003168302560251478</v>
+        <v>0.0002830008819619063</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>0.0003133724513582346</v>
+        <v>0.0002801742745342671</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>0.0003104864698028522</v>
+        <v>0.0002779122041452666</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0003081509112620921</v>
+        <v>0.0002761912243131685</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0003063443756390452</v>
+        <v>0.0002749878885562359</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>0.0003050454628368031</v>
+        <v>0.0002742787503927323</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>0.0003042327727584567</v>
+        <v>0.000274040363340921</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>0.0003038849053070975</v>
+        <v>0.0002742492809190656</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>0.0003039804603858167</v>
+        <v>0.0002748820566454292</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0003044980378977055</v>
+        <v>0.0002759152440382752</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0003054162377458552</v>
+        <v>0.0002773253966158671</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>0.0003067136598333556</v>
+        <v>0.0002790890678964664</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>0.0003083689040633022</v>
+        <v>0.0002811828113983421</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0003103605703387801</v>
+        <v>0.0002835831806397494</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>0.0003126672585628854</v>
+        <v>0.0002862667291389583</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>0.000315267568638708</v>
+        <v>0.0002892100104142298</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0003181401004693389</v>
+        <v>0.0002923895779838275</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0003212634539578696</v>
+        <v>0.0002957819853660149</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>0.0003246162290073911</v>
+        <v>0.0002993637860790549</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0003281770255209947</v>
+        <v>0.0003031115336412114</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>0.0003319244434017718</v>
+        <v>0.0003070017815707474</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>0.0003358370825528135</v>
+        <v>0.0003110110833859263</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0003398935428772109</v>
+        <v>0.0003151159926050117</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0003440724242780557</v>
+        <v>0.0003192930627462668</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>0.0003483523266584388</v>
+        <v>0.000323518847327955</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0003527118499214515</v>
+        <v>0.0003277698998683398</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0003571295939701852</v>
+        <v>0.0003320227738856844</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0003615841587077309</v>
+        <v>0.0003362540228982523</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0003660541440371801</v>
+        <v>0.0003404402004243068</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0003705181498616238</v>
+        <v>0.0003445578599821113</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>0.0003749547760841535</v>
+        <v>0.0003485835550899292</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0003793426226078604</v>
+        <v>0.0003524938392660239</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>0.0003836602893358355</v>
+        <v>0.0003562652660286587</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0003878863761711704</v>
+        <v>0.000359874388896097</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0003920243583043882</v>
+        <v>0.0003633240520053164</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>0.0003963094524594457</v>
+        <v>0.0003668620264438825</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0004011029785162055</v>
+        <v>0.0003708693613569363</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>0.0004067675188386164</v>
+        <v>0.0003757284402053663</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>0.0004136656557906268</v>
+        <v>0.0003818216464500607</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>0.0004221599717361857</v>
+        <v>0.0003895313635519081</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>0.0004326130490392417</v>
+        <v>0.0003992399749717968</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>0.0004453874700637436</v>
+        <v>0.0004113298641706153</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>0.0004608458171736401</v>
+        <v>0.0004261834146092519</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>0.0004793506727328798</v>
+        <v>0.0004441830097485952</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>0.0005012646191054114</v>
+        <v>0.0004657110330495334</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>0.0005269502386551839</v>
+        <v>0.000491149867972955</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>0.0005567701137461458</v>
+        <v>0.0005208818979797485</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>0.0005910868267422458</v>
+        <v>0.0005552895065308022</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>0.0006302629600073923</v>
+        <v>0.0005947550770869635</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>0.0006746610959056553</v>
+        <v>0.0006396609931092437</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>0.0007246438168008111</v>
+        <v>0.0006903896380583568</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>0.000780573705056945</v>
+        <v>0.0007473233953953291</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>0.0008428133430379604</v>
+        <v>0.0008108446485810037</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>0.000911725313107806</v>
+        <v>0.0008813357810762685</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>0.0009876721976304307</v>
+        <v>0.0009591791763420123</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>0.001071016578969782</v>
+        <v>0.001044757217839123</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>0.001162121039489811</v>
+        <v>0.001138452289028489</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>0.001261345437065101</v>
+        <v>0.00124064391340769</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>0.001368338032164289</v>
+        <v>0.001350964633223258</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>0.001481087937501591</v>
+        <v>0.001467305342628447</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>0.001597348259215737</v>
+        <v>0.001587309193885465</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>0.001714872103445462</v>
+        <v>0.001708619339256523</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>0.001831412576329497</v>
+        <v>0.001828878931003832</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>0.001944722784006572</v>
+        <v>0.0019457311213896</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>0.002052555832615421</v>
+        <v>0.002056819062676038</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>0.002152664828294775</v>
+        <v>0.002159785907125356</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>0.002242802877183365</v>
+        <v>0.002252274806999764</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>0.002320723085419926</v>
+        <v>0.002331928914561471</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>0.002384178559143186</v>
+        <v>0.002396391382072689</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>0.002430922404491878</v>
+        <v>0.002443305361795627</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>0.002458707727604736</v>
+        <v>0.002470314005992494</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>0.002465328542081532</v>
+        <v>0.002475103901943235</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>0.002450675021480797</v>
+        <v>0.002457587312700852</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>0.002417695583323567</v>
+        <v>0.002420923705553418</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>0.002369580617473354</v>
+        <v>0.002368529470920347</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>0.002309520513793669</v>
+        <v>0.002303820999221056</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>0.002240705662148025</v>
+        <v>0.00223021468087496</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>0.002166326452399934</v>
+        <v>0.002151126906301474</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>0.002089573274412906</v>
+        <v>0.002069974065920014</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>0.002013636518050455</v>
+        <v>0.001990172550149998</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>0.001941706573176093</v>
+        <v>0.001915138749410838</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>0.00187662282018584</v>
+        <v>0.001847908624230589</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>0.001818834737293063</v>
+        <v>0.001788927919453915</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>0.001767795660962968</v>
+        <v>0.001737562744952258</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>0.001722955629871912</v>
+        <v>0.001693175636398729</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>0.001683764682696251</v>
+        <v>0.001655129129466441</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>0.001649672858112345</v>
+        <v>0.001622785759828506</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>0.001620130194796578</v>
+        <v>0.001595508063158059</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>0.001594586731425251</v>
+        <v>0.001572658575128161</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>0.001572492506674751</v>
+        <v>0.001553599831411952</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>0.001553297559221439</v>
+        <v>0.001537694367682544</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>0.001536451927741671</v>
+        <v>0.00152430471961305</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>0.001521405650911805</v>
+        <v>0.001512793422876582</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>0.001507608767408199</v>
+        <v>0.00150252301314625</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>0.001494511315907211</v>
+        <v>0.001492856026095168</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>0.001481563335085198</v>
+        <v>0.001483154997396448</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>0.001468214863618519</v>
+        <v>0.001472782462723201</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>0.001453915940183532</v>
+        <v>0.001461100957748539</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>0.001438116603456593</v>
+        <v>0.001447473018145576</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>0.00142027903978744</v>
+        <v>0.00143127463476268</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>0.001400288232035829</v>
+        <v>0.001412350102210147</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>0.001378551384611335</v>
+        <v>0.001391122145408214</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>0.001355508013068676</v>
+        <v>0.001368049278197945</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>0.001331597632962567</v>
+        <v>0.001343590014420403</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>0.001307259759847727</v>
+        <v>0.001318202867916651</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>0.001282933909278873</v>
+        <v>0.001292346352527753</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>0.00125905959681072</v>
+        <v>0.001266478982094772</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>0.001236076337997987</v>
+        <v>0.00124105927045877</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>0.00121442364839539</v>
+        <v>0.001216545731460811</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>0.001194541043557645</v>
+        <v>0.001193396878941959</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>0.001176868039039471</v>
+        <v>0.001172071226743277</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>0.001161756353077746</v>
+        <v>0.001152952754569349</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>0.001149119930120441</v>
+        <v>0.001136053801029884</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>0.001138736539553766</v>
+        <v>0.001121271101081899</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>0.001130383907445067</v>
+        <v>0.001108501352907556</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>0.001123839759861688</v>
+        <v>0.001097641254689012</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>0.001118881822870977</v>
+        <v>0.001088587504608428</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>0.001115287822540279</v>
+        <v>0.001081236800847963</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>0.001112840774249684</v>
+        <v>0.001075487230885251</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>0.00111142284350568</v>
+        <v>0.001071262925056184</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>0.001111004253076926</v>
+        <v>0.001068511142893558</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>0.001111558286676954</v>
+        <v>0.001067179947920608</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>0.001113058228019299</v>
+        <v>0.001067217403660569</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>0.001115477360817492</v>
+        <v>0.001068571573636677</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>0.001118788968785065</v>
+        <v>0.001071190521372163</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>0.001122966335635556</v>
+        <v>0.001075022310390267</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>0.001127982745082497</v>
+        <v>0.001080015004214223</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>0.001133811480839419</v>
+        <v>0.001086116666367265</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>0.001140425826619858</v>
+        <v>0.00109327536037263</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>0.001147799066137345</v>
+        <v>0.001101439149753551</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>0.001155904483105414</v>
+        <v>0.001110556098033264</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>0.001164715361237598</v>
+        <v>0.001120574268735004</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>0.001174204984247432</v>
+        <v>0.001131441725382006</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>0.001184346635848447</v>
+        <v>0.001143106531497504</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>0.001195113599754178</v>
+        <v>0.001155516750604735</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>0.001206479159678157</v>
+        <v>0.001168620446226933</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>0.001218416599333918</v>
+        <v>0.001182365681887333</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>0.001230899202434994</v>
+        <v>0.001196700521109171</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>0.001243900252694917</v>
+        <v>0.00121157302741568</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>0.001257393033827223</v>
+        <v>0.001226931264330097</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>0.001271350829545444</v>
+        <v>0.001242723295375657</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>0.001285746923563112</v>
+        <v>0.001258897184075594</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>0.001300554599593762</v>
+        <v>0.001275400993953143</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>0.001315747141350927</v>
+        <v>0.00129218278853154</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>0.001331297832548139</v>
+        <v>0.001309190631334019</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>0.001347179956898934</v>
+        <v>0.001326372585883817</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>0.001363371687660924</v>
+        <v>0.001343683007808461</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>0.001379921929059302</v>
+        <v>0.001361167272801438</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>0.001396932816961255</v>
+        <v>0.00137893925763477</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>0.001414507788039372</v>
+        <v>0.001397114513020454</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>0.001432750278966246</v>
+        <v>0.001415808589670486</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>0.001451763726414467</v>
+        <v>0.001435137038296859</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>0.001471651567056626</v>
+        <v>0.00145521540961157</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>0.001492517237565314</v>
+        <v>0.001476159254326612</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>0.001514464174613122</v>
+        <v>0.001498084123153983</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>0.001537595814872641</v>
+        <v>0.001521105566805676</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>0.001562015595016462</v>
+        <v>0.001545339135993687</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>0.001587826951717175</v>
+        <v>0.00157090038143001</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>0.001615133321647373</v>
+        <v>0.001597904853826643</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>0.001644038141479644</v>
+        <v>0.001626468103895577</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>0.001674644847886582</v>
+        <v>0.001656705682348811</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>0.001707056877540744</v>
+        <v>0.001688733139898305</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>0.001741377667114784</v>
+        <v>0.001722666027256119</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>0.001777710653281262</v>
+        <v>0.001758619895134216</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>0.00181615927271277</v>
+        <v>0.001796710294244593</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>0.001856826962081897</v>
+        <v>0.001837052775299243</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>0.001899817158061235</v>
+        <v>0.001879762889010161</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>0.001945233297323377</v>
+        <v>0.001924956186089345</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>0.001993178816540911</v>
+        <v>0.001972748217248787</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>0.002043757152386429</v>
+        <v>0.002023254533200485</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>0.002097071741532523</v>
+        <v>0.002076590684656431</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>0.002153226020651782</v>
+        <v>0.002132872222328623</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>0.002212323426416798</v>
+        <v>0.002192214696929055</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>0.002274467395500162</v>
+        <v>0.002254733659169722</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>0.002339761364574464</v>
+        <v>0.002320544659762619</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>0.002408308770312297</v>
+        <v>0.002389763249419741</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>0.00248021304938625</v>
+        <v>0.002462504978853084</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>0.002555577638468915</v>
+        <v>0.002538885398774642</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>0.002634505974232882</v>
+        <v>0.002619020059896412</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>0.002717101493350743</v>
+        <v>0.002703024512930387</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>0.002803467632495088</v>
+        <v>0.002791014308588563</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>0.002893707828338509</v>
+        <v>0.002883104997582936</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>0.002987925517553595</v>
+        <v>0.002979412130625499</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>0.003086223840174484</v>
+        <v>0.003080050651092702</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>0.003188687473147811</v>
+        <v>0.00318509770116173</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>0.003295372086696453</v>
+        <v>0.003294571034841637</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>0.003406330809823054</v>
+        <v>0.003408483203264521</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>0.003521616771530255</v>
+        <v>0.003526846757562477</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>0.003641283100820696</v>
+        <v>0.003649674248867603</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>0.003765382926697023</v>
+        <v>0.003776978228311998</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>0.003893969378161875</v>
+        <v>0.003908771247027758</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>0.004027095584217896</v>
+        <v>0.004045065856146979</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>0.004164814673867728</v>
+        <v>0.004185874606801763</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>0.004307179776114015</v>
+        <v>0.004331210050124205</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>0.004454244019959395</v>
+        <v>0.0044810847372464</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>0.004606060534406514</v>
+        <v>0.004635511219300448</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>0.004762682448458011</v>
+        <v>0.004794502047418447</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>0.004924162891116532</v>
+        <v>0.004958069772732492</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>0.005090554991384553</v>
+        <v>0.005126226946374518</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>0.005261911878265039</v>
+        <v>0.005298986119476944</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>0.005438286680760473</v>
+        <v>0.005476359843171713</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>0.005619732527873498</v>
+        <v>0.005658360668590917</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>0.005806307763539027</v>
+        <v>0.00584500796726641</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>0.005998220754863597</v>
+        <v>0.006036517319990188</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>0.006195848791039913</v>
+        <v>0.00623332523394309</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>0.006399578172663649</v>
+        <v>0.006435880001956744</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>0.006609795200330477</v>
+        <v>0.006644629916862763</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>0.006826886174636076</v>
+        <v>0.006860023271492779</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>0.007051237396176118</v>
+        <v>0.007082508358678404</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>0.007283235165546278</v>
+        <v>0.007312533471251265</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>0.007523265783342228</v>
+        <v>0.00755054690204298</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>0.007771715550159644</v>
+        <v>0.00779699694388517</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>0.008028970766594201</v>
+        <v>0.00805233188960946</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>0.008295417733241571</v>
+        <v>0.008317000032047469</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>0.008571442750697432</v>
+        <v>0.008591449664030816</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>0.008857432119557456</v>
+        <v>0.008876129078391125</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>0.009153772140417316</v>
+        <v>0.009171486567960019</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>0.009460824025791228</v>
+        <v>0.009477944290597763</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>0.009778037434774064</v>
+        <v>0.009794974812920033</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>0.01010371349847464</v>
+        <v>0.01012085424712019</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>0.01043608007020531</v>
+        <v>0.01045378236981711</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>0.01077336500327843</v>
+        <v>0.01079195895762968</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>0.01111379615100635</v>
+        <v>0.01113358378717676</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>0.01145560136670144</v>
+        <v>0.01147685663507724</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>0.01179700850367606</v>
+        <v>0.01181997727795</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>0.01213624541524257</v>
+        <v>0.01216114549241392</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>0.01247153995471331</v>
+        <v>0.01249856105508787</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>0.01280114134198469</v>
+        <v>0.01283044603245256</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>0.01312406401337857</v>
+        <v>0.01315582077340747</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>0.01344028018131174</v>
+        <v>0.01347470478969316</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>0.01374982254596155</v>
+        <v>0.01378718069456527</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>0.01405272380750535</v>
+        <v>0.01409333110127945</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>0.0143490166661205</v>
+        <v>0.01439323862309132</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>0.01463873382198435</v>
+        <v>0.01468698587325653</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>0.01492190797527425</v>
+        <v>0.01497465546503072</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>0.01519857182616729</v>
+        <v>0.01525633001166926</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>0.01546875807484136</v>
+        <v>0.01553209212642834</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>0.01573249942147354</v>
+        <v>0.01580202442256332</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>0.01598982856624119</v>
+        <v>0.01606620951332985</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>0.01624077820932165</v>
+        <v>0.01632473001198355</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>0.01648513627469275</v>
+        <v>0.01657736472737516</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>0.01672134200438155</v>
+        <v>0.01682221854941124</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>0.01694737263470922</v>
+        <v>0.01705682294881455</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>0.01716120499320032</v>
+        <v>0.01727870888892928</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>0.01736081590737946</v>
+        <v>0.0174854073330996</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>0.01754418220477121</v>
+        <v>0.0176744492446697</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>0.01770928071290014</v>
+        <v>0.01784336558698373</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>0.01785408825929084</v>
+        <v>0.01798968732338589</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>0.01797658167146789</v>
+        <v>0.01811094541722034</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>0.01807473777695587</v>
+        <v>0.01820467083183127</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>0.01814653334984417</v>
+        <v>0.01826839454817107</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>0.01818957886602998</v>
+        <v>0.01829976825152631</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>0.01820024387611247</v>
+        <v>0.01829685254282947</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>0.01817463540362763</v>
+        <v>0.01825779453218793</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>0.01810886047211141</v>
+        <v>0.01818074132970903</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>0.01799902610509978</v>
+        <v>0.01806384004550016</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>0.01784148813444906</v>
+        <v>0.01790542189604281</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>0.01763995051079423</v>
+        <v>0.01770925535772735</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>0.01740650092107877</v>
+        <v>0.01748531247478096</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>0.01715368411346484</v>
+        <v>0.01724390349508743</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>0.01689404483611463</v>
+        <v>0.01699533866653058</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>0.01663848915679426</v>
+        <v>0.01674856049397008</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>0.01638824139550996</v>
+        <v>0.01650443050259943</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>0.01614098286720165</v>
+        <v>0.01626085300858248</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>0.01589438959325334</v>
+        <v>0.01601572790975713</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>0.01564613759504905</v>
+        <v>0.01576695510396128</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>0.01539390289397282</v>
+        <v>0.01551243448903283</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>0.01513536151140867</v>
+        <v>0.01525006596280967</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>0.01486818946874064</v>
+        <v>0.01497774942312972</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>0.01459006278735274</v>
+        <v>0.01469338476783087</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>0.0142986574886293</v>
+        <v>0.01439487189475131</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>0.01399164959395346</v>
+        <v>0.01408011070172805</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>0.01366717263253278</v>
+        <v>0.01374745820613321</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>0.01332730877559522</v>
+        <v>0.01339921671612558</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>0.01297615926602196</v>
+        <v>0.01303970589792029</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>0.01261784161820567</v>
+        <v>0.01267326167543421</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>0.01225647334654036</v>
+        <v>0.01230421997258556</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>0.01189617196541968</v>
+        <v>0.0119369167132922</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>0.01154105498923732</v>
+        <v>0.01157568782147203</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>0.01119523993238694</v>
+        <v>0.0112248692210429</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>0.01086284430926221</v>
+        <v>0.01088879683592271</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>0.01054791864422685</v>
+        <v>0.01057173422160271</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>0.01025204383605476</v>
+        <v>0.01027527703032905</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>0.009973668425288022</v>
+        <v>0.009997637069960381</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>0.009711039063448394</v>
+        <v>0.009736808050367264</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>0.009462402402057656</v>
+        <v>0.009490783681420265</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>0.009226005092637581</v>
+        <v>0.009257557672989948</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>0.009000093786709932</v>
+        <v>0.009035123734946878</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>0.008782915135796486</v>
+        <v>0.008821475577161623</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>0.008572715791419005</v>
+        <v>0.008614606909504739</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>0.008367742405099264</v>
+        <v>0.008412511441846795</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>0.008166241628359033</v>
+        <v>0.008213182884058355</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>0.007966460112720081</v>
+        <v>0.008014614946009985</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>0.007766644509704177</v>
+        <v>0.007814801337572248</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>0.007565041470833095</v>
+        <v>0.007611735768615708</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>0.007359899906067075</v>
+        <v>0.007403414468867433</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>0.007151585315834484</v>
+        <v>0.007190195257408036</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>0.006946506980656421</v>
+        <v>0.006979179311061229</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>0.006752145927547582</v>
+        <v>0.006778663609592813</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>0.006575983183522661</v>
+        <v>0.006596945132768586</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>0.006425499775596355</v>
+        <v>0.006442320860354349</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>0.00630817673078336</v>
+        <v>0.006323087772115901</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>0.006231495076098369</v>
+        <v>0.006247542847819044</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>0.006196959685986152</v>
+        <v>0.00621738577537368</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>0.006175585130190157</v>
+        <v>0.006200656888023627</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>0.006135951022974661</v>
+        <v>0.006162669749407807</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>0.00607968689033053</v>
+        <v>0.006105046665802085</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>0.00601781913369505</v>
+        <v>0.006039733388169656</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>0.005961374810048378</v>
+        <v>0.005978676387655733</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>0.005921380976371038</v>
+        <v>0.005933822135405916</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>0.005908864689643226</v>
+        <v>0.005917117102565444</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>0.005934853006845302</v>
+        <v>0.005940507760279755</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>0.006009955043233196</v>
+        <v>0.006015482308317264</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>0.006134319749942128</v>
+        <v>0.00614205941963187</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>0.00629714222126149</v>
+        <v>0.006308246908326137</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>0.006487100805375799</v>
+        <v>0.006501485978529989</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>0.006692873850469567</v>
+        <v>0.006709217834373346</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>0.006903527977424201</v>
+        <v>0.006919457281348873</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>0.007110903639884727</v>
+        <v>0.007124316951723928</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>0.007308048030156149</v>
+        <v>0.007317692211770531</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>0.007488013292827506</v>
+        <v>0.007493485743847799</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>0.007643851572487844</v>
+        <v>0.007645600230314869</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>0.007768648957982628</v>
+        <v>0.007767966915135698</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>0.007858161257007631</v>
+        <v>0.007856763415088472</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>0.007912694376255943</v>
+        <v>0.007911995921892271</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>0.007932998091267988</v>
+        <v>0.007934044110380949</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>0.007919822177584203</v>
+        <v>0.007923287655388354</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>0.007873916410745018</v>
+        <v>0.007880106231748335</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>0.007796118116676006</v>
+        <v>0.007804980605820859</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>0.007688582527715268</v>
+        <v>0.007699913286792014</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>0.007554483455365212</v>
+        <v>0.007568082903427706</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>0.007397021147654954</v>
+        <v>0.007412698609874463</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>0.00721939585261361</v>
+        <v>0.007236969560278806</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>0.007024807818270294</v>
+        <v>0.007044104908787261</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>0.006816457292654126</v>
+        <v>0.006837313809546357</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>0.006597544523794219</v>
+        <v>0.006619805416702615</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>0.006371269759719687</v>
+        <v>0.006394788884402562</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>0.006140827254805363</v>
+        <v>0.006165467342009609</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>0.005908721076049781</v>
+        <v>0.005934350146932475</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>0.005676133291188038</v>
+        <v>0.005702617791340396</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>0.005444096621948169</v>
+        <v>0.005471300645747514</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>0.005213643790058209</v>
+        <v>0.005241429080667977</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>0.00498580751724619</v>
+        <v>0.005014033466615934</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>0.004761620525240149</v>
+        <v>0.004790144174105529</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>0.004542115535768325</v>
+        <v>0.00457079157365112</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>0.004328325270558125</v>
+        <v>0.004357006035766223</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>0.004121282451338406</v>
+        <v>0.004149817930965812</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>0.003922019799836405</v>
+        <v>0.003950257629763235</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>0.003731570037780923</v>
+        <v>0.003759355502673406</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>0.00355096588689943</v>
+        <v>0.003578141920209909</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>0.003381240068920146</v>
+        <v>0.003407647252887076</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>0.003223424446961234</v>
+        <v>0.003248901028827499</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>0.003078142525110624</v>
+        <v>0.003102532130633373</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>0.00294495731118698</v>
+        <v>0.002968128976393496</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>0.002823261886162606</v>
+        <v>0.002845113267105213</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>0.002712449331009808</v>
+        <v>0.002732906703765869</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>0.002611912726700887</v>
+        <v>0.00263093098737281</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>0.00252104515420815</v>
+        <v>0.002538607818923381</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>0.002439239694503902</v>
+        <v>0.002455358899414926</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>0.002365889428560446</v>
+        <v>0.002380605929844792</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>0.002300387437350087</v>
+        <v>0.002313770611210324</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>0.002242126801845129</v>
+        <v>0.002254274644508867</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>0.002190500603017876</v>
+        <v>0.002201539730737767</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>0.002144901921840634</v>
+        <v>0.002154987570894368</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>0.002104723839285707</v>
+        <v>0.002114039865976016</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>0.002069403477815184</v>
+        <v>0.002078150329683416</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>0.002038719209004451</v>
+        <v>0.00204702072151882</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>0.002012608743413368</v>
+        <v>0.002020468620673332</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>0.0019910106907631</v>
+        <v>0.001998312259916859</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>0.001973863660774817</v>
+        <v>0.001980369872019309</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>0.001961106263169685</v>
+        <v>0.001966459689750591</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>0.001952677107668875</v>
+        <v>0.001956399945880611</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>0.001948514803993552</v>
+        <v>0.001950008873179277</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>0.001948557961864884</v>
+        <v>0.001947104704416498</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>0.001952178251491952</v>
+        <v>0.001947071403950328</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>0.001955764674310738</v>
+        <v>0.001947008250024073</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>0.001954728828038389</v>
+        <v>0.001943265842139004</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>0.001944481743452536</v>
+        <v>0.00193219434552798</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>0.001920435253822804</v>
+        <v>0.001910144669393538</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>0.001885219537243161</v>
+        <v>0.001880159664686493</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>0.00186385041135986</v>
+        <v>0.001865779668063678</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>0.001856430196820823</v>
+        <v>0.001864277181710659</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>0.001842763038267524</v>
+        <v>0.001852008229201864</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>0.001813172861782386</v>
+        <v>0.001818251402219327</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>0.001775827197566244</v>
+        <v>0.001774080462495828</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>0.00174054388095578</v>
+        <v>0.001732584946202562</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>0.001716588025415494</v>
+        <v>0.001706098720348348</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>0.001704104954398118</v>
+        <v>0.001694487276025569</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>0.001695758059931282</v>
+        <v>0.00168738697257372</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>0.001684465706058434</v>
+        <v>0.001674860294931946</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>0.00166843471638988</v>
+        <v>0.001655061238312142</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>0.001649170479068273</v>
+        <v>0.001631190705907891</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>0.001628227714695813</v>
+        <v>0.001606524744609017</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>0.00160664677707162</v>
+        <v>0.001583327165230614</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>0.001584062442088413</v>
+        <v>0.001561095704544532</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>0.001559871585105097</v>
+        <v>0.001538859928552106</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>0.001533471081480578</v>
+        <v>0.001515649403254675</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>0.00150425780657376</v>
+        <v>0.001490493694653573</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>0.00147162863574355</v>
+        <v>0.001462422368750139</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>0.001434980444348852</v>
+        <v>0.001430464991545709</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>0.001393710107748572</v>
+        <v>0.001393651129041619</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>0.001347214501301614</v>
+        <v>0.001351010347239206</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>0.00129558607380339</v>
+        <v>0.001302301948905349</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>0.001244306824212037</v>
+        <v>0.001252939496583193</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>0.001201375286814951</v>
+        <v>0.001210976688645067</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>0.001174804196888767</v>
+        <v>0.001184482121939015</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>0.001172606289710119</v>
+        <v>0.001181524393313084</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>0.001202792930056357</v>
+        <v>0.00121017074678861</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>0.001270608618718791</v>
+        <v>0.001275757241083908</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>0.001372728128375193</v>
+        <v>0.001375160713360816</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>0.00150417210880673</v>
+        <v>0.001503625207782526</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>0.001659961209794568</v>
+        <v>0.001656394768512234</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>0.001835116081119873</v>
+        <v>0.001828713439713132</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>0.002024657372563811</v>
+        <v>0.002015825265548417</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>0.002223605733907548</v>
+        <v>0.002212974290181283</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>0.002426981814932252</v>
+        <v>0.002415404557774923</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>0.00262970339105415</v>
+        <v>0.002618231457280455</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>0.002825535121828988</v>
+        <v>0.002815128284998693</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>0.003007517551860757</v>
+        <v>0.002998862755332187</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>0.003168680017636128</v>
+        <v>0.003162188565753926</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>0.003302051855640655</v>
+        <v>0.003297859413735768</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>0.003400702829597638</v>
+        <v>0.003398670349968732</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>0.003462246015317983</v>
+        <v>0.003462063801294369</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>0.003492936841075913</v>
+        <v>0.003494322499148753</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>0.00349999882469572</v>
+        <v>0.003502719438502539</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>0.003490655484001777</v>
+        <v>0.003494527614326463</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>0.003472091729102748</v>
+        <v>0.003476981233794752</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>0.003448635354112376</v>
+        <v>0.003454444061430887</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>0.003419843127083615</v>
+        <v>0.003426486581850558</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>0.003384818588753189</v>
+        <v>0.003392223938331793</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>0.003342665279857827</v>
+        <v>0.003350771274152622</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>0.003292486741134256</v>
+        <v>0.003301243732591075</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>0.003233386513319203</v>
+        <v>0.003242756456925179</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>0.003164634085746099</v>
+        <v>0.003174589391157447</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>0.003086872557697178</v>
+        <v>0.00309738658793133</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>0.003001423380012869</v>
+        <v>0.003012465759267116</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>0.002909612801912558</v>
+        <v>0.002921149382373501</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>0.002812767072615634</v>
+        <v>0.002824759934459182</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>0.002712212441341487</v>
+        <v>0.002724619892732856</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>0.002609275157309506</v>
+        <v>0.002622051734403219</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>0.002505281469739078</v>
+        <v>0.002518377936678967</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>0.002401557627849593</v>
+        <v>0.002414920976768797</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>0.00229942988086044</v>
+        <v>0.002313003331881404</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>0.002200224477991009</v>
+        <v>0.002213947479225487</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>0.002105267668460687</v>
+        <v>0.002119075896009739</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>0.002015825506275693</v>
+        <v>0.002029651176635267</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>0.00193232677905446</v>
+        <v>0.001946102994422517</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>0.001854586721034127</v>
+        <v>0.001868250653575442</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>0.001782406473740846</v>
+        <v>0.001795899438726401</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>0.001715587178700768</v>
+        <v>0.001728854634507754</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>0.001653929977440046</v>
+        <v>0.001666921525551861</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>0.00159723601148483</v>
+        <v>0.00160990539649108</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>0.001545306422361273</v>
+        <v>0.001557611531957773</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>0.001497942351595527</v>
+        <v>0.001509845216584298</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>0.001454944940713742</v>
+        <v>0.001466411735003015</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>0.001416115331242107</v>
+        <v>0.001427116371846319</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>0.001381254664706667</v>
+        <v>0.001391764411746462</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>0.001350164082633707</v>
+        <v>0.001360161139335941</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>0.001322644726549259</v>
+        <v>0.001332111839246993</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>0.001298497737979582</v>
+        <v>0.001307421796112085</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>0.001277524258450753</v>
+        <v>0.001285896294563502</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>0.001259525429488949</v>
+        <v>0.001267340619233629</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>0.001244302392620319</v>
+        <v>0.001251560054754823</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>0.001231656289371018</v>
+        <v>0.001238359885759447</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>0.001221388261267195</v>
+        <v>0.001227545396879859</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>0.001213299449835004</v>
+        <v>0.001218921872748418</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>0.001207190996600596</v>
+        <v>0.001212294597997485</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>0.001202864043090122</v>
+        <v>0.001207468857259418</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>0.001200119730829734</v>
+        <v>0.001204249935166578</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>0.001198759201345584</v>
+        <v>0.001202443116351324</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>0.001198583596163823</v>
+        <v>0.001201853685446016</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>0.001199394056810604</v>
+        <v>0.001202286927083013</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>0.001200991724812078</v>
+        <v>0.001203548125894675</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>0.001203177741694396</v>
+        <v>0.001205442566513362</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>0.00120575324898371</v>
+        <v>0.001207775533571432</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>0.001208519388206173</v>
+        <v>0.001210352311701246</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>0.001211277300887936</v>
+        <v>0.001212978185535164</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>0.00121382812855515</v>
+        <v>0.001215458439705544</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>0.001215973012733967</v>
+        <v>0.001217598358844747</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>0.001217513094950539</v>
+        <v>0.001219203227585132</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>0.001218249516731018</v>
+        <v>0.001220078330559059</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>0.001217983419601555</v>
+        <v>0.001220028952398886</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>0.00121651728478651</v>
+        <v>0.001218861676900044</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>0.001213824121227421</v>
+        <v>0.001216548455931838</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>0.001210212758603738</v>
+        <v>0.001213386901200681</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>0.00120603126445721</v>
+        <v>0.001209712675058468</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>0.001201627706329586</v>
+        <v>0.001205861439857096</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>0.001197350151762616</v>
+        <v>0.001202168857948459</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>0.001193546668298048</v>
+        <v>0.001198970591684455</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>0.001190565323477632</v>
+        <v>0.001196602303416977</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>0.001188754184843116</v>
+        <v>0.001195399655497921</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>0.00118846131993625</v>
+        <v>0.001195698310279185</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>0.00119003479629878</v>
+        <v>0.001197833930112658</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>0.001193822681472463</v>
+        <v>0.001202142177350248</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>0.001200173042999033</v>
+        <v>0.001208958714343833</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>0.001209433948420265</v>
+        <v>0.001218619203445334</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>0.001221953465277871</v>
+        <v>0.00123145930700661</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>0.00123807966111363</v>
+        <v>0.001247814687379588</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>0.001258160603469283</v>
+        <v>0.001268021006916155</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>0.001282544359886578</v>
+        <v>0.001292413927968204</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>0.001311578997907265</v>
+        <v>0.001321329112887632</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>0.001345612585073092</v>
+        <v>0.001355102224026335</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>0.001384993188925809</v>
+        <v>0.001394068923736209</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>0.001430068877007164</v>
+        <v>0.001438564874369148</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>0.001481187716858906</v>
+        <v>0.001488925738277048</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>0.001538697776022786</v>
+        <v>0.001545487177811806</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>0.001602947122040552</v>
+        <v>0.001608584855325317</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>0.001674283822453953</v>
+        <v>0.001678554433169476</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>0.001753055944804738</v>
+        <v>0.001755731573696179</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>0.001839611556634656</v>
+        <v>0.001840451939257323</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>0.001934244752754387</v>
+        <v>0.001933006355980836</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>0.002036655480159081</v>
+        <v>0.002033192079556436</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>0.002146175599813956</v>
+        <v>0.0021405005892688</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>0.002262131487455557</v>
+        <v>0.002254418807713768</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>0.002383849518820436</v>
+        <v>0.002374433657487184</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>0.00251065606964514</v>
+        <v>0.002500032061184889</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>0.002641877515666218</v>
+        <v>0.002630700941402723</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>0.002776840232620217</v>
+        <v>0.00276592722073653</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>0.002914870596243688</v>
+        <v>0.002905197821782151</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>0.003055294982273176</v>
+        <v>0.003047999667135427</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>0.003197361382173079</v>
+        <v>0.00319370660104942</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>0.003339695283742051</v>
+        <v>0.003340794434524328</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>0.003480625320057093</v>
+        <v>0.003487310731425445</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>0.003618478295990604</v>
+        <v>0.003631300418222318</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>0.00375158101641499</v>
+        <v>0.003770808421384492</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>0.003878260286202649</v>
+        <v>0.003903879667381514</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>0.003996842910225984</v>
+        <v>0.004028559082682927</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>0.004105655693357395</v>
+        <v>0.00414289159375828</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>0.004203025440469285</v>
+        <v>0.004244922127077116</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>0.00428727895643398</v>
+        <v>0.004332695609108905</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>0.004356743046124105</v>
+        <v>0.004404256966323425</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>0.004409744514411797</v>
+        <v>0.004457651125189947</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>0.004444610166169658</v>
+        <v>0.004490923012178218</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>0.004459666806269958</v>
+        <v>0.004502117553757663</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>0.00445363787451962</v>
+        <v>0.004489786348468345</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>0.004427702806889687</v>
+        <v>0.004455618350018617</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>0.004383979923116415</v>
+        <v>0.004402501867342305</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>0.00432458942839221</v>
+        <v>0.004333327617905323</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>0.004251651527909473</v>
+        <v>0.004250986319173587</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>0.004167286426860613</v>
+        <v>0.004158368688613017</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>0.004073614330438033</v>
+        <v>0.004058365443689531</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>0.003972755443834135</v>
+        <v>0.003953867301869043</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>0.003866829972241324</v>
+        <v>0.003847764980617472</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>0.003757944254208725</v>
+        <v>0.003742888959860767</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>0.003647903837620338</v>
+        <v>0.00364076306662075</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>0.003538223226212752</v>
+        <v>0.003541646814479585</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>0.003430405007045868</v>
+        <v>0.003445747950252684</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>0.003325951767179587</v>
+        <v>0.00335327422075545</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>0.003226366093673808</v>
+        <v>0.003264433372803294</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>0.003133150573588433</v>
+        <v>0.003179433153211624</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>0.003047807793983362</v>
+        <v>0.003098481308795848</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>0.002971840341918495</v>
+        <v>0.003021785586371372</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>0.002906748024175862</v>
+        <v>0.002949553629078211</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>0.002853124267180566</v>
+        <v>0.002881959281513402</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>0.002809356554595494</v>
+        <v>0.002819094129594511</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>0.002773503176403583</v>
+        <v>0.002761037483744993</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>0.00274362242258777</v>
+        <v>0.0027078686543883</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>0.002717772583130992</v>
+        <v>0.002659666951947881</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>0.002694011948016187</v>
+        <v>0.002616511686847189</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>0.002670398807226293</v>
+        <v>0.002578482169509675</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>0.002645288681170632</v>
+        <v>0.002545662365134165</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>0.002619321364259674</v>
+        <v>0.00251817201177926</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>0.002594195762598458</v>
+        <v>0.002496147433716127</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>0.002571616582817524</v>
+        <v>0.002479725046055027</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>0.002553288531547414</v>
+        <v>0.002469041263906221</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>0.002540916315418668</v>
+        <v>0.002464232502379972</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>0.002536180822989104</v>
+        <v>0.002465439824906681</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>0.002540000454132733</v>
+        <v>0.002472953101730306</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>0.002552388478522068</v>
+        <v>0.002487238847737476</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>0.002573305556189535</v>
+        <v>0.002508773845079298</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>0.00260271234716743</v>
+        <v>0.002538034875906742</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>0.002640569511488202</v>
+        <v>0.002575498722370931</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>0.002686837709184204</v>
+        <v>0.002621642166622893</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>0.002741477600287812</v>
+        <v>0.002676941990813679</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>0.002804437307146626</v>
+        <v>0.002741846214990903</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>0.002875366062240388</v>
+        <v>0.002816117190241154</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>0.002953608242411594</v>
+        <v>0.002898817912903546</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>0.003038494493517984</v>
+        <v>0.002988979879721317</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>0.003129355461417302</v>
+        <v>0.003085634587437708</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>0.003225521791967292</v>
+        <v>0.003187813532795957</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>0.003326324131025695</v>
+        <v>0.003294548212539306</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>0.003431093124450255</v>
+        <v>0.003404870123410996</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>0.003539159418098715</v>
+        <v>0.003517810762154264</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>0.003649871006175384</v>
+        <v>0.003632456394492535</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>0.003762702857791285</v>
+        <v>0.003748294147759994</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>0.003877186370882403</v>
+        <v>0.003864989295904628</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>0.003992853199396853</v>
+        <v>0.0039822079211084</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>0.004109234997282741</v>
+        <v>0.004099616105553267</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>0.004225863418488184</v>
+        <v>0.004216879931421193</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>0.004342270116961292</v>
+        <v>0.004333665480894139</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>0.004457986746650175</v>
+        <v>0.004449638836154063</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>0.004572544961502946</v>
+        <v>0.00456446607938293</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>0.004685466282919671</v>
+        <v>0.004677802655156152</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>0.004795282995387427</v>
+        <v>0.004788265462461955</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>0.004898721913443207</v>
+        <v>0.0048925759363963</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>0.004992317708490684</v>
+        <v>0.004987253791516215</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>0.005072605051933534</v>
+        <v>0.005068818742378726</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>0.005136118615175419</v>
+        <v>0.005133790503540855</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>0.005179393069620014</v>
+        <v>0.005178688789559631</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>0.005198963086670991</v>
+        <v>0.005200033314992079</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>0.005191363337732017</v>
+        <v>0.005194343794395224</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>0.005153130109602705</v>
+        <v>0.005158141542977381</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>0.005082226313652852</v>
+        <v>0.005089361478892909</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>0.004980658677381272</v>
+        <v>0.004989945426186249</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>0.004851145485170956</v>
+        <v>0.004862540270996505</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>0.004696405021405729</v>
+        <v>0.004709792899463609</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>0.004519156898017906</v>
+        <v>0.004534351522548022</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>0.004326725133333842</v>
+        <v>0.004343459296069773</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>0.004141346884193808</v>
+        <v>0.004159241869549549</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>0.003988273146877463</v>
+        <v>0.004006832538848187</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>0.003892754917664289</v>
+        <v>0.003911364599826344</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>0.003880043002529402</v>
+        <v>0.00389797116067858</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>0.003962653150496011</v>
+        <v>0.003979226824028334</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>0.004105874809477093</v>
+        <v>0.004121134609204512</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>0.00426405255598082</v>
+        <v>0.004278904397426658</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>0.004392402719121702</v>
+        <v>0.004408581977749846</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>0.004468785751049561</v>
+        <v>0.004487926179988892</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>0.004495248459017291</v>
+        <v>0.004517887693204541</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>0.004475018269124027</v>
+        <v>0.004500549280554216</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>0.004411322607468899</v>
+        <v>0.004437993705195334</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>0.00430738938711136</v>
+        <v>0.004332304324731255</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>0.004169784634121735</v>
+        <v>0.004189639423712416</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>0.004016383054140202</v>
+        <v>0.004029962104849987</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>0.003867451788871481</v>
+        <v>0.0038761559837787</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>0.003743055192588497</v>
+        <v>0.00375087226751968</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>0.003649649577821667</v>
+        <v>0.00366116639324151</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>0.003571725771814014</v>
+        <v>0.00358891981204456</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>0.003491779244425704</v>
+        <v>0.003513727155580421</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>0.003392626451972361</v>
+        <v>0.003415604463914599</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>0.003264923387889174</v>
+        <v>0.003284859946290727</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>0.003107428113993375</v>
+        <v>0.003122438646399269</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>0.002919272243819334</v>
+        <v>0.002929776000848034</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>0.002701204565081418</v>
+        <v>0.002709407943269586</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>0.002459880995393769</v>
+        <v>0.0024678902457035</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>0.002203305838210987</v>
+        <v>0.002212696265087748</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>0.001939483396987676</v>
+        <v>0.001951299358360309</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>0.001676417975178437</v>
+        <v>0.001691172882459158</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>0.001422113876237873</v>
+        <v>0.001439790194322272</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>0.001184575403620586</v>
+        <v>0.001204624650887625</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>0.0009718068607811779</v>
+        <v>0.0009931496090931967</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>0.0007918125511744069</v>
+        <v>0.0008128384258771182</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>0.0006524851864514026</v>
+        <v>0.000671066577176124</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>0.0005539342730819188</v>
+        <v>0.0005683826225063353</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>0.0004835345131177098</v>
+        <v>0.0004941649873103959</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>0.0004275704203361804</v>
+        <v>0.0004368199209391073</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>0.0003779871979869868</v>
+        <v>0.0003886893864746322</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>0.0003357444064990537</v>
+        <v>0.0003483827689281574</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>0.0003023727557595679</v>
+        <v>0.0003151064792061362</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>0.0002776832897292678</v>
+        <v>0.0002883464504140173</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>0.0002607173835894518</v>
+        <v>0.0002677137210666304</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>0.0002505128053185761</v>
+        <v>0.0002528199160097055</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>0.0002461073228950969</v>
+        <v>0.0002432766600889726</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>0.000246538704297471</v>
+        <v>0.0002386955781501617</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>0.0002508452922220267</v>
+        <v>0.0002386883521213755</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>0.0002582602587238489</v>
+        <v>0.0002428860148550812</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>0.0002684943664100176</v>
+        <v>0.0002509670346555063</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>0.0002813302176216676</v>
+        <v>0.0002626170151234727</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>0.000296550414699934</v>
+        <v>0.0002775215598598027</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>0.0003139375599859516</v>
+        <v>0.0002953662724653183</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>0.0003332742558208553</v>
+        <v>0.0003158367565408416</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>0.00035434310454578</v>
+        <v>0.0003386186156871947</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>0.0003769267085018608</v>
+        <v>0.0003633974535051997</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>0.0004008076700302324</v>
+        <v>0.0003898588735956786</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>0.0004257685914720296</v>
+        <v>0.0004176884795594534</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>0.0004515920751683878</v>
+        <v>0.0004465718749973466</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>0.0004780607234604415</v>
+        <v>0.0004761946635101798</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>0.0005049571386893258</v>
+        <v>0.0005062424486987755</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>0.0005320639231961755</v>
+        <v>0.0005364008341639555</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>0.0005591636793221257</v>
+        <v>0.000566355423506542</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>0.0005860390094083109</v>
+        <v>0.0005957918203273569</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>0.0006124725157958665</v>
+        <v>0.0006243956282272224</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>0.0006382468008259271</v>
+        <v>0.000651852450806961</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>0.000663144466839628</v>
+        <v>0.0006778478916673941</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>0.0006869496935322823</v>
+        <v>0.0007020744744977721</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>0.0007094762286874931</v>
+        <v>0.0007243544426079242</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>0.0007305640801149151</v>
+        <v>0.0007446252459650274</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>0.0007500541684449079</v>
+        <v>0.0007628283392170615</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>0.0007677874143078157</v>
+        <v>0.0007789051770119929</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>0.0007836047383340475</v>
+        <v>0.0007927972139978448</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>0.0007973470611539018</v>
+        <v>0.0008044459048225437</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>0.0008088553033977928</v>
+        <v>0.0008137927041341154</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>0.0008179703856960351</v>
+        <v>0.0008207790665805035</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>0.0008245332286790194</v>
+        <v>0.000825346446809712</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>0.0008283847529770958</v>
+        <v>0.0008274362994697133</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>0.0008293658792206242</v>
+        <v>0.0008269900792084879</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>0.000827317528039965</v>
+        <v>0.0008239492406740155</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>0.0008220806200654781</v>
+        <v>0.0008182552385142768</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>0.0008134960759275235</v>
+        <v>0.0008098495273772516</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>0.0008014048162564619</v>
+        <v>0.0007986735619109207</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>0.0007856477616826524</v>
+        <v>0.0007846687967632637</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>0.0007660658328364561</v>
+        <v>0.0007677766865822613</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>0.0007424999503482324</v>
+        <v>0.0007479386860158934</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>0.0007147910348483419</v>
+        <v>0.0007250962497121402</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>0.0006831694493938083</v>
+        <v>0.0006994127208169397</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>0.0006527876482934951</v>
+        <v>0.0006738558504192399</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>0.000632171750848978</v>
+        <v>0.0006533155670765754</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>0.0006299137148817822</v>
+        <v>0.000642719311464574</v>
       </c>
     </row>
   </sheetData>
